--- a/data-raw/partidos_uy.xlsx
+++ b/data-raw/partidos_uy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
   <si>
     <t xml:space="preserve">Partido</t>
   </si>
@@ -92,7 +92,16 @@
     <t xml:space="preserve">AP</t>
   </si>
   <si>
-    <t xml:space="preserve">2010 - 2015</t>
+    <t xml:space="preserve">2010 - 2015 - 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabildo Abierto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
   </si>
   <si>
     <t xml:space="preserve">Concentracion Blanca de San Jose</t>
@@ -140,7 +149,7 @@
     <t xml:space="preserve">FA</t>
   </si>
   <si>
-    <t xml:space="preserve">1971 - 1984 - 1989 - 1994 - 1999 - 2004 - 2014 - 2000 - 2005 - 2010 - 2015</t>
+    <t xml:space="preserve">1971 - 1984 - 1989 - 1994 - 1999 - 2004 - 2014 - 2000 - 2005 - 2010 - 2015 - 2019</t>
   </si>
   <si>
     <t xml:space="preserve">Frente Anticolegialista del Pueblo</t>
@@ -302,7 +311,7 @@
     <t xml:space="preserve">PC</t>
   </si>
   <si>
-    <t xml:space="preserve">1918 - 1919 - 1920 - 1922 - 1925 - 1926 - 1928 - 1930 - 1931 - 1932 - 1934 - 1938 - 1942 - 1946 - 1950 - 1954 - 1958 - 1962 - 1966 - 1971 - 1984 - 1989 - 1994 - 1999 - 2004 - 2014 - 2000 - 2005 - 2010 - 2015</t>
+    <t xml:space="preserve">1918 - 1919 - 1920 - 1922 - 1925 - 1926 - 1928 - 1930 - 1931 - 1932 - 1934 - 1938 - 1942 - 1946 - 1950 - 1954 - 1958 - 1962 - 1966 - 1971 - 1984 - 1989 - 1994 - 1999 - 2004 - 2014 - 2000 - 2005 - 2010 - 2015 - 2019</t>
   </si>
   <si>
     <t xml:space="preserve">Partido Colorado General Fructuoso Rivera</t>
@@ -371,6 +380,12 @@
     <t xml:space="preserve">2015</t>
   </si>
   <si>
+    <t xml:space="preserve">Partido de la Gente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PdeG</t>
+  </si>
+  <si>
     <t xml:space="preserve">Partido de las clases Pasivas</t>
   </si>
   <si>
@@ -383,7 +398,7 @@
     <t xml:space="preserve">PT</t>
   </si>
   <si>
-    <t xml:space="preserve">1962 - 1984 - 1989 - 1994 - 2004 - 2014 - 2005 - 2015</t>
+    <t xml:space="preserve">1962 - 1984 - 1989 - 1994 - 2004 - 2014 - 2005 - 2015 - 2019</t>
   </si>
   <si>
     <t xml:space="preserve">Partido del Pueblo</t>
@@ -425,13 +440,19 @@
     <t xml:space="preserve">PDL</t>
   </si>
   <si>
+    <t xml:space="preserve">Partido Digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pdigit.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Partido Ecologista Radical Intransigente</t>
   </si>
   <si>
     <t xml:space="preserve">PERI</t>
   </si>
   <si>
-    <t xml:space="preserve">2014 - 2015</t>
+    <t xml:space="preserve">2014 - 2015 - 2019</t>
   </si>
   <si>
     <t xml:space="preserve">Partido Federal</t>
@@ -455,7 +476,7 @@
     <t xml:space="preserve">PI</t>
   </si>
   <si>
-    <t xml:space="preserve">2004 - 2014 - 2005 - 2010 - 2015</t>
+    <t xml:space="preserve">2004 - 2014 - 2005 - 2010 - 2015 - 2019</t>
   </si>
   <si>
     <t xml:space="preserve">Partido Independiente Democrata Feminista</t>
@@ -633,6 +654,12 @@
   </si>
   <si>
     <t xml:space="preserve">1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Verde Animalista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVA</t>
   </si>
   <si>
     <t xml:space="preserve">Partido Verde Ecologista</t>
@@ -1274,7 +1301,7 @@
         <v>2010</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
@@ -1289,10 +1316,10 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>1950</v>
+        <v>2019</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1307,10 +1334,10 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="n">
-        <v>1938</v>
+        <v>1950</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -1325,87 +1352,85 @@
       </c>
       <c r="C11"/>
       <c r="D11" t="n">
-        <v>1928</v>
+        <v>1938</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="n">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="n">
-        <v>1950</v>
+        <v>1925</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="n">
-        <v>1931</v>
+        <v>1950</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1971</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C15"/>
       <c r="D15" t="n">
-        <v>1971</v>
+        <v>1931</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1415,9 +1440,11 @@
       <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C16"/>
+      <c r="C16" t="n">
+        <v>1971</v>
+      </c>
       <c r="D16" t="n">
-        <v>1954</v>
+        <v>1971</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1435,7 +1462,7 @@
       </c>
       <c r="C17"/>
       <c r="D17" t="n">
-        <v>1962</v>
+        <v>1954</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1453,7 +1480,7 @@
       </c>
       <c r="C18"/>
       <c r="D18" t="n">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -1471,31 +1498,31 @@
       </c>
       <c r="C19"/>
       <c r="D19" t="n">
-        <v>1938</v>
+        <v>1958</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="n">
-        <v>1918</v>
+        <v>1938</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -1507,7 +1534,7 @@
       </c>
       <c r="C21"/>
       <c r="D21" t="n">
-        <v>1966</v>
+        <v>1918</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1525,7 +1552,7 @@
       </c>
       <c r="C22"/>
       <c r="D22" t="n">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1543,7 +1570,7 @@
       </c>
       <c r="C23"/>
       <c r="D23" t="n">
-        <v>1962</v>
+        <v>1971</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -1561,47 +1588,45 @@
       </c>
       <c r="C24"/>
       <c r="D24" t="n">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1961</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C25"/>
       <c r="D25" t="n">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
         <v>70</v>
       </c>
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
       <c r="C26" t="n">
-        <v>1989</v>
+        <v>1961</v>
       </c>
       <c r="D26" t="n">
-        <v>1989</v>
+        <v>1962</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -1617,33 +1642,35 @@
       <c r="B27" t="s">
         <v>74</v>
       </c>
-      <c r="C27"/>
+      <c r="C27" t="n">
+        <v>1989</v>
+      </c>
       <c r="D27" t="n">
-        <v>1946</v>
+        <v>1989</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="n">
-        <v>1928</v>
+        <v>1946</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -1655,102 +1682,100 @@
       </c>
       <c r="C29"/>
       <c r="D29" t="n">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="n">
-        <v>1966</v>
+        <v>1925</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="n">
-        <v>1994</v>
+        <v>1966</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="n">
-        <v>2014</v>
+        <v>1994</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="n">
-        <v>1950</v>
+        <v>2014</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1936</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C34"/>
       <c r="D34" t="n">
-        <v>1938</v>
+        <v>1950</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
         <v>32</v>
@@ -1758,38 +1783,40 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35"/>
+        <v>92</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1936</v>
+      </c>
       <c r="D35" t="n">
-        <v>1994</v>
+        <v>1938</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="n">
-        <v>1926</v>
+        <v>1994</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -1799,11 +1826,9 @@
       <c r="B37" t="s">
         <v>95</v>
       </c>
-      <c r="C37" t="n">
-        <v>1836</v>
-      </c>
+      <c r="C37"/>
       <c r="D37" t="n">
-        <v>1918</v>
+        <v>1926</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -1819,7 +1844,9 @@
       <c r="B38" t="s">
         <v>98</v>
       </c>
-      <c r="C38"/>
+      <c r="C38" t="n">
+        <v>1836</v>
+      </c>
       <c r="D38" t="n">
         <v>1918</v>
       </c>
@@ -1839,7 +1866,7 @@
       </c>
       <c r="C39"/>
       <c r="D39" t="n">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -1855,9 +1882,7 @@
       <c r="B40" t="s">
         <v>104</v>
       </c>
-      <c r="C40" t="n">
-        <v>1920</v>
-      </c>
+      <c r="C40"/>
       <c r="D40" t="n">
         <v>1922</v>
       </c>
@@ -1875,51 +1900,53 @@
       <c r="B41" t="s">
         <v>107</v>
       </c>
-      <c r="C41"/>
+      <c r="C41" t="n">
+        <v>1920</v>
+      </c>
       <c r="D41" t="n">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="n">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="n">
-        <v>1984</v>
+        <v>1925</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -1931,7 +1958,7 @@
       </c>
       <c r="C44"/>
       <c r="D44" t="n">
-        <v>1971</v>
+        <v>1984</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -1949,10 +1976,10 @@
       </c>
       <c r="C45"/>
       <c r="D45" t="n">
-        <v>2015</v>
+        <v>1971</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
         <v>118</v>
@@ -1967,33 +1994,31 @@
       </c>
       <c r="C46"/>
       <c r="D46" t="n">
-        <v>1958</v>
+        <v>2015</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1984</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C47"/>
       <c r="D47" t="n">
-        <v>1962</v>
+        <v>2019</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
@@ -2005,13 +2030,13 @@
       </c>
       <c r="C48"/>
       <c r="D48" t="n">
-        <v>1950</v>
+        <v>1958</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49">
@@ -2021,33 +2046,35 @@
       <c r="B49" t="s">
         <v>127</v>
       </c>
-      <c r="C49"/>
+      <c r="C49" t="n">
+        <v>1984</v>
+      </c>
       <c r="D49" t="n">
-        <v>1994</v>
+        <v>1962</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="n">
-        <v>1919</v>
+        <v>1950</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -2057,17 +2084,15 @@
       <c r="B51" t="s">
         <v>132</v>
       </c>
-      <c r="C51" t="n">
-        <v>1962</v>
-      </c>
+      <c r="C51"/>
       <c r="D51" t="n">
-        <v>1962</v>
+        <v>1994</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
@@ -2079,51 +2104,51 @@
       </c>
       <c r="C52"/>
       <c r="D52" t="n">
-        <v>1994</v>
+        <v>1919</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53"/>
+        <v>137</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1962</v>
+      </c>
       <c r="D53" t="n">
-        <v>1994</v>
+        <v>1962</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" t="n">
-        <v>2013</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C54"/>
       <c r="D54" t="n">
-        <v>2014</v>
+        <v>1994</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
@@ -2135,13 +2160,13 @@
       </c>
       <c r="C55"/>
       <c r="D55" t="n">
-        <v>1962</v>
+        <v>1994</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
@@ -2153,91 +2178,89 @@
       </c>
       <c r="C56"/>
       <c r="D56" t="n">
-        <v>1946</v>
+        <v>2019</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" t="s">
         <v>145</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
         <v>146</v>
-      </c>
-      <c r="C57" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" t="s">
         <v>148</v>
       </c>
-      <c r="B58" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1932</v>
-      </c>
+      <c r="C58"/>
       <c r="D58" t="n">
-        <v>1938</v>
+        <v>1962</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" t="s">
         <v>150</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59"/>
+      <c r="D59" t="n">
+        <v>1946</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
         <v>151</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" t="s">
         <v>153</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
         <v>154</v>
-      </c>
-      <c r="C60"/>
-      <c r="D60" t="n">
-        <v>1971</v>
-      </c>
-      <c r="E60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="61">
@@ -2247,111 +2270,111 @@
       <c r="B61" t="s">
         <v>156</v>
       </c>
-      <c r="C61"/>
+      <c r="C61" t="n">
+        <v>1932</v>
+      </c>
       <c r="D61" t="n">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" t="s">
         <v>158</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
         <v>159</v>
-      </c>
-      <c r="C62"/>
-      <c r="D62" t="n">
-        <v>1958</v>
-      </c>
-      <c r="E62" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" t="s">
         <v>161</v>
       </c>
-      <c r="B63" t="s">
-        <v>162</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2002</v>
-      </c>
+      <c r="C63"/>
       <c r="D63" t="n">
-        <v>1950</v>
+        <v>1971</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64" t="n">
+        <v>1942</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
         <v>164</v>
-      </c>
-      <c r="B64" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1836</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1918</v>
-      </c>
-      <c r="E64" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" t="s">
         <v>166</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65"/>
+      <c r="D65" t="n">
+        <v>1958</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
         <v>167</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1931</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1942</v>
-      </c>
-      <c r="E65" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" t="s">
         <v>169</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1950</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
         <v>170</v>
-      </c>
-      <c r="C66"/>
-      <c r="D66" t="n">
-        <v>1954</v>
-      </c>
-      <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="67">
@@ -2362,46 +2385,48 @@
         <v>172</v>
       </c>
       <c r="C67" t="n">
-        <v>1944</v>
+        <v>1836</v>
       </c>
       <c r="D67" t="n">
-        <v>1958</v>
+        <v>1918</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" t="s">
         <v>174</v>
       </c>
-      <c r="B68" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68"/>
+      <c r="C68" t="n">
+        <v>1931</v>
+      </c>
       <c r="D68" t="n">
-        <v>1931</v>
+        <v>1942</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B69" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C69"/>
       <c r="D69" t="n">
-        <v>1962</v>
+        <v>1954</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -2412,110 +2437,112 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
-      </c>
-      <c r="C70"/>
+        <v>179</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1944</v>
+      </c>
       <c r="D70" t="n">
-        <v>1950</v>
+        <v>1958</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C71"/>
       <c r="D71" t="n">
-        <v>1938</v>
+        <v>1931</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C72"/>
       <c r="D72" t="n">
-        <v>1950</v>
+        <v>1962</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C73"/>
       <c r="D73" t="n">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C74"/>
       <c r="D74" t="n">
-        <v>1994</v>
+        <v>1938</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="n">
-        <v>1928</v>
+        <v>1950</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -2525,17 +2552,15 @@
       <c r="B76" t="s">
         <v>190</v>
       </c>
-      <c r="C76" t="n">
-        <v>1925</v>
-      </c>
+      <c r="C76"/>
       <c r="D76" t="n">
-        <v>1925</v>
+        <v>1946</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
@@ -2547,31 +2572,31 @@
       </c>
       <c r="C77"/>
       <c r="D77" t="n">
-        <v>1928</v>
+        <v>1994</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>193</v>
+      </c>
+      <c r="B78" t="s">
         <v>194</v>
-      </c>
-      <c r="B78" t="s">
-        <v>195</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="n">
-        <v>1994</v>
+        <v>1928</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79">
@@ -2581,127 +2606,127 @@
       <c r="B79" t="s">
         <v>197</v>
       </c>
-      <c r="C79"/>
+      <c r="C79" t="n">
+        <v>1925</v>
+      </c>
       <c r="D79" t="n">
-        <v>1934</v>
+        <v>1925</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>198</v>
+      </c>
+      <c r="B80" t="s">
         <v>199</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80"/>
+      <c r="D80" t="n">
+        <v>1928</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
         <v>200</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1910</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1919</v>
-      </c>
-      <c r="E80" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>201</v>
+      </c>
+      <c r="B81" t="s">
         <v>202</v>
-      </c>
-      <c r="B81" t="s">
-        <v>203</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="n">
-        <v>1931</v>
+        <v>1994</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>203</v>
+      </c>
+      <c r="B82" t="s">
         <v>204</v>
-      </c>
-      <c r="B82" t="s">
-        <v>205</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="n">
-        <v>1989</v>
+        <v>1934</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>206</v>
+      </c>
+      <c r="B83" t="s">
         <v>207</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1919</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
         <v>208</v>
-      </c>
-      <c r="C83"/>
-      <c r="D83" t="n">
-        <v>1989</v>
-      </c>
-      <c r="E83" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" t="s">
         <v>210</v>
       </c>
-      <c r="B84" t="s">
-        <v>211</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1987</v>
-      </c>
+      <c r="C84"/>
       <c r="D84" t="n">
-        <v>1994</v>
+        <v>1931</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" t="s">
         <v>212</v>
-      </c>
-      <c r="B85" t="s">
-        <v>213</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="n">
-        <v>1946</v>
+        <v>1989</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86">
@@ -2713,13 +2738,13 @@
       </c>
       <c r="C86"/>
       <c r="D86" t="n">
-        <v>1946</v>
+        <v>2019</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
@@ -2731,57 +2756,59 @@
       </c>
       <c r="C87"/>
       <c r="D87" t="n">
-        <v>1931</v>
+        <v>1989</v>
       </c>
       <c r="E87" t="s">
         <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
-      </c>
-      <c r="C88"/>
+        <v>220</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1987</v>
+      </c>
       <c r="D88" t="n">
-        <v>1946</v>
+        <v>1994</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C89"/>
       <c r="D89" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="n">
@@ -2796,58 +2823,56 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C91"/>
       <c r="D91" t="n">
-        <v>1950</v>
+        <v>1931</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B92" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="n">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B93" t="s">
-        <v>229</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1910</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C93"/>
       <c r="D93" t="n">
-        <v>1919</v>
+        <v>1931</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
@@ -2859,13 +2884,13 @@
       </c>
       <c r="C94"/>
       <c r="D94" t="n">
-        <v>1925</v>
+        <v>1946</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
@@ -2877,13 +2902,13 @@
       </c>
       <c r="C95"/>
       <c r="D95" t="n">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -2895,13 +2920,13 @@
       </c>
       <c r="C96"/>
       <c r="D96" t="n">
-        <v>1958</v>
+        <v>1950</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -2911,33 +2936,35 @@
       <c r="B97" t="s">
         <v>238</v>
       </c>
-      <c r="C97"/>
+      <c r="C97" t="n">
+        <v>1910</v>
+      </c>
       <c r="D97" t="n">
-        <v>1950</v>
+        <v>1919</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B98" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C98"/>
       <c r="D98" t="n">
-        <v>1922</v>
+        <v>1925</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>241</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -2949,87 +2976,85 @@
       </c>
       <c r="C99"/>
       <c r="D99" t="n">
-        <v>1984</v>
+        <v>1946</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F99" t="s">
-        <v>244</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>244</v>
+      </c>
+      <c r="B100" t="s">
         <v>245</v>
       </c>
-      <c r="B100" t="s">
-        <v>246</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1962</v>
-      </c>
+      <c r="C100"/>
       <c r="D100" t="n">
-        <v>1946</v>
+        <v>1958</v>
       </c>
       <c r="E100" t="s">
         <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>247</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C101"/>
       <c r="D101" t="n">
-        <v>1971</v>
+        <v>1950</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F101" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B102" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="n">
-        <v>1946</v>
+        <v>1922</v>
       </c>
       <c r="E102" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>251</v>
+      </c>
+      <c r="B103" t="s">
         <v>252</v>
-      </c>
-      <c r="B103" t="s">
-        <v>253</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="n">
-        <v>1950</v>
+        <v>1984</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>253</v>
       </c>
     </row>
     <row r="104">
@@ -3039,82 +3064,156 @@
       <c r="B104" t="s">
         <v>255</v>
       </c>
-      <c r="C104"/>
+      <c r="C104" t="n">
+        <v>1962</v>
+      </c>
       <c r="D104" t="n">
         <v>1946</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B105" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C105"/>
       <c r="D105" t="n">
-        <v>1946</v>
+        <v>1971</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B106" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="n">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B107" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C107"/>
       <c r="D107" t="n">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B108" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
+      <c r="D108" t="n">
+        <v>1946</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>265</v>
+      </c>
+      <c r="B109" t="s">
+        <v>266</v>
+      </c>
+      <c r="C109"/>
+      <c r="D109" t="n">
+        <v>1946</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>267</v>
+      </c>
+      <c r="B110" t="s">
+        <v>268</v>
+      </c>
+      <c r="C110"/>
+      <c r="D110" t="n">
+        <v>1950</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>269</v>
+      </c>
+      <c r="B111" t="s">
+        <v>270</v>
+      </c>
+      <c r="C111"/>
+      <c r="D111" t="n">
+        <v>1946</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>271</v>
+      </c>
+      <c r="B112" t="s">
+        <v>271</v>
+      </c>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/partidos_uy.xlsx
+++ b/data-raw/partidos_uy.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t xml:space="preserve">Partido</t>
   </si>
@@ -92,7 +92,739 @@
     <t xml:space="preserve">AP</t>
   </si>
   <si>
-    <t xml:space="preserve">2010 - 2015 - 2019</t>
+    <t xml:space="preserve">2009 - 2010 - 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentracion Blanca de San Jose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBSJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentracion Candida Diaz de Saravia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentracion Colorada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentracion Independiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concordancia Laborista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corcondancia Colorada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frente Amplio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1971 - 1984 - 1989 - 1994 - 1999 - 2004 - 2009 - 2014 - 2019 - 2000 - 2005 - 2010 - 2015 - 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frente Anticolegialista del Pueblo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frente Izquierda de Liberacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIDEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1962 - 1966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frente Obrero Sindical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Melchor Pacheco y Obes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista Unica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movimiento Civico Cristiano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movimiento Justiciero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1971 - 1989 - 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movimiento Progresista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1962 - 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movimiento Renovador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movimiento Revolucionario Oriental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo Espacio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1989 - 1994 - 1999 - 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Servir a Rocha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Agrario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1928 - 1931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Agrario Popular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Agrario y del Trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Alianza Oriental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Asamblea Popular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014 - 2019 - 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Autonomia Departamental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Autonomo Negro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Blanco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1926 - 1928 - 1931 - 1950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Cabildo Abierto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019 - 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Colorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1918 - 1919 - 1920 - 1922 - 1925 - 1926 - 1928 - 1930 - 1931 - 1932 - 1934 - 1938 - 1942 - 1946 - 1950 - 1954 - 1958 - 1962 - 1966 - 1971 - 1984 - 1989 - 1994 - 1999 - 2004 - 2014 - 2019 - 2009 - 2000 - 2005 - 2010 - 2015 - 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Colorado General Fructuoso Rivera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1918 - 1922 - 1925 - 1928 - 1930 - 1931 - 1934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Colorado Radical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1922 - 1925 - 1928 - 1931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Comunista del Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1922 - 1925 - 1926 - 1928 - 1930 - 1931 - 1932 - 1934 - 1938 - 1942 - 1946 - 1950 - 1954 - 1958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Concentracion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PConcentracion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Concordia Departamental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PConD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Convergencia Socialista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1984 - 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido de Jubilados y Pensionistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido de la Concertacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PConcertacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido de la Gente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PdeG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido de las Clases Pasivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido de los Trabajadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1962 - 1984 - 1989 - 1994 - 2004 - 2014 - 2019 - 2005 - 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido del Pueblo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido del Sol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Democrata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1919 - 1946 - 1950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Democrata Cristiano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Democrata Laboral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDLaboral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Democrata Liberal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pdigit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Ecologista Radical Intransigente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014 - 2019 - 2015 - 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido General Aparicio Saravia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1946 - 1950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Independiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004 - 2014 - 2019 - 2009 - 2005 - 2010 - 2015 - 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Independiente Democrata Feminista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Intransigente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIntra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004 - 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Juventud por el Desarrollo Oriental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido la Concordancia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PConcordancia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido la Concordancia Laborista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Laborista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plaborista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1958 - 1962 - 1966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Liberal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1950 - 2004 - 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1918 - 1919 - 1920 - 1922 - 1925 - 1926 - 1928 - 1930 - 1931 - 1932 - 1934 - 1938 - 1942 - 1946 - 1950 - 1954 - 1958 - 1962 - 1966 - 1971 - 1984 - 1989 - 1994 - 1999 - 2004 - 2009 - 2014 - 2019 - NA - 2000 - 2005 - 2010 - 2015 - 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Nacional Independiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1942 - 1946 - 1950 - 1954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Obrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Obrero Revoluacionario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1958 - 1962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Popular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido por el Departamento de Solis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido por el Progreso de Rivera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido por la Concordancia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido por la Defensa de los Derechos Ciudadanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido por la Reforma Agraria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido por la Seguridad Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido por la Tradicion Colorada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1928 - 1930 - 1931 - 1934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Radical Blanco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Reformista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preformista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1928 - 1931 - 1934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Republicano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRepublicano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Saravista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSaravista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Socialista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1919 - 1922 - 1925 - 1928 - 1931 - 1932 - 1934 - 1938 - 1942 - 1946 - 1950 - 1954 - 1958 - 1966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Sosista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psosista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Verde Animalista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Verde Ecologista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1989 - 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Verde Eto-Ecologista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por el Porgreso de Flores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por el Progreso Departamental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por la Defensa del Pueblo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pueblo Soberano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psoberano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sindica Gente de Artes y Afines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soberania Popular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Blanca de Treinta y Tres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Blanca por la Reconquista de Paysandu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Civica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1919 - 1922 - 1925 - 1928 - 1931 - 1934 - 1938 - 1942 - 1946 - 1950 - 1954 - 1958 - 1984 - 1994 - 1999 - 2004 - 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Colorada de Durazno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union de Tacuarembo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Democrata Reformista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Departamental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Patriotica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Popular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1962 - 1966 - 1946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Radical Cristiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Vecinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Vecinal de Rivera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Vecinal de Soriano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Vecinal por el Progreso de Cerro Largo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UVPCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Vecinal  Herrerismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UVH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Vecinal Montevideo Herrerismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UVMH</t>
   </si>
   <si>
     <t xml:space="preserve">Cabildo Abierto</t>
@@ -101,730 +833,19 @@
     <t xml:space="preserve">CA</t>
   </si>
   <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentracion Blanca de San Jose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBSJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentracion Candida Diaz de Saravia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentracion Colorada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentracion Independiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concordancia Laborista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corcondancia Colorada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frente Amplio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1971 - 1984 - 1989 - 1994 - 1999 - 2004 - 2014 - 2000 - 2005 - 2010 - 2015 - 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frente Anticolegialista del Pueblo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frente Izquierda de Liberacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIDEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1962 - 1966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frente Obrero Sindical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Melchor Pacheco y Obes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lista Unica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movimiento Civico Cristiano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movimiento Justiciero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1971 - 1989 - 1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movimiento Progresista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1962 - 1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movimiento Renovador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Movimiento Revolucionario</t>
   </si>
   <si>
-    <t xml:space="preserve">1962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo Espacio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1989 - 1994 - 1999 - 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para Servir a Rocha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Agrario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1928 - 1931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Agrario Popular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Agrario y del Trabajo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Alianza Oriental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Asamblea Popular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Autonomia Departamental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Autonomo Negro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Azul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Blanco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1926 - 1928 - 1931 - 1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Colorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1918 - 1919 - 1920 - 1922 - 1925 - 1926 - 1928 - 1930 - 1931 - 1932 - 1934 - 1938 - 1942 - 1946 - 1950 - 1954 - 1958 - 1962 - 1966 - 1971 - 1984 - 1989 - 1994 - 1999 - 2004 - 2014 - 2000 - 2005 - 2010 - 2015 - 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Colorado General Fructuoso Rivera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCGR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1918 - 1922 - 1925 - 1928 - 1931 - 1934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Colorado Radical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1922 - 1925 - 1928 - 1931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Comunista del Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1922 - 1925 - 1926 - 1928 - 1930 - 1931 - 1932 - 1934 - 1938 - 1942 - 1946 - 1950 - 1954 - 1958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Concentracion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PConcentracion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Concordia Departamental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PConD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Partido Convergencia</t>
   </si>
   <si>
     <t xml:space="preserve">PConvergencia</t>
   </si>
   <si>
-    <t xml:space="preserve">1984 - 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido de Jubilados y Pensionistas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PJP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido de la Concertacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PConcertacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido de la Gente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PdeG</t>
-  </si>
-  <si>
     <t xml:space="preserve">Partido de las clases Pasivas</t>
   </si>
   <si>
     <t xml:space="preserve">PCP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido de los Trabajadores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1962 - 1984 - 1989 - 1994 - 2004 - 2014 - 2005 - 2015 - 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido del Pueblo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido del Sol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Democrata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1919 - 1946 - 1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Democrata Cristiano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Democrata Laboral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDLaboral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Democrata Liberal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Digital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pdigit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Ecologista Radical Intransigente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014 - 2015 - 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Federal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido General Aparicio Saravia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PGAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1946 - 1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Independiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004 - 2014 - 2005 - 2010 - 2015 - 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Independiente Democrata Feminista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Intransigente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIntra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004 - 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Juventud por el Desarrollo Oriental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PJDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido la Concordancia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PConcordancia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1942 - 1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Laborista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plaborista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1958 - 1962 - 1966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Liberal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1950 - 2004 - 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Nacional Independiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1942 - 1946 - 1950 - 1954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Obrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Obrero Revoluacionario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1958 - 1962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Popular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido por el Departamento de Solis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido por el Progreso de Rivera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido por la Concordancia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido por la Defensa de los Derechos Ciudadanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido por la Reforma Agraria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido por la Seguridad Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido por la Tradicion Colorada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1928 - 1930 - 1931 - 1934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Radical Blanco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Reformista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preformista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1928 - 1931 - 1934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Republicano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRepublicano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Saravista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSaravista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Socialista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1919 - 1922 - 1925 - 1928 - 1931 - 1932 - 1934 - 1938 - 1942 - 1946 - 1950 - 1954 - 1958 - 1966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Sosista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psosista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Verde Animalista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Verde Ecologista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1989 - 1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Verde Eto-Ecologista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por el Porgreso de Flores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por el Progreso Departamental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por la Defensa del Pueblo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pueblo Soberano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psoberano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sindica Gente de Artes y Afines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soberania Popular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Blanca de Treinta y Tres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Blanca por la Reconquista de Paysandu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBRP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Civica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1919 - 1922 - 1925 - 1928 - 1931 - 1934 - 1938 - 1942 - 1946 - 1950 - 1954 - 1958 - 1984 - 1994 - 1999 - 2004 - 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Colorada de Durazno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union de Tacuarembo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Democrata Reformista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Departamental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Industrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Patriotica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Popular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1962 - 1966 - 1946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Radical Cristiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Vecinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Vecinal  Herrerismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UVH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Vecinal de Rivera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UVR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Vecinal de Soriano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UVS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Vecinal Montevideo Herrerismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UVMH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Vecinal por el Progreso de Cerro Largo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UVPCL</t>
   </si>
   <si>
     <t xml:space="preserve">Riveristas</t>
@@ -833,7 +854,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -1152,12 +1173,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1298,7 +1319,7 @@
         <v>2006</v>
       </c>
       <c r="D8" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1316,10 +1337,10 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>2019</v>
+        <v>1950</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1334,10 +1355,10 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="n">
-        <v>1950</v>
+        <v>1938</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -1352,85 +1373,87 @@
       </c>
       <c r="C11"/>
       <c r="D11" t="n">
-        <v>1938</v>
+        <v>1928</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="n">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="n">
-        <v>1925</v>
+        <v>1950</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="n">
-        <v>1950</v>
+        <v>1931</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1971</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1971</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15" t="n">
-        <v>1931</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1440,11 +1463,9 @@
       <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="n">
-        <v>1971</v>
-      </c>
+      <c r="C16"/>
       <c r="D16" t="n">
-        <v>1971</v>
+        <v>1954</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1462,7 +1483,7 @@
       </c>
       <c r="C17"/>
       <c r="D17" t="n">
-        <v>1954</v>
+        <v>1962</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1480,7 +1501,7 @@
       </c>
       <c r="C18"/>
       <c r="D18" t="n">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -1498,31 +1519,31 @@
       </c>
       <c r="C19"/>
       <c r="D19" t="n">
-        <v>1958</v>
+        <v>1938</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="n">
-        <v>1938</v>
+        <v>1918</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
@@ -1534,7 +1555,7 @@
       </c>
       <c r="C21"/>
       <c r="D21" t="n">
-        <v>1918</v>
+        <v>1966</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1552,7 +1573,7 @@
       </c>
       <c r="C22"/>
       <c r="D22" t="n">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1570,7 +1591,7 @@
       </c>
       <c r="C23"/>
       <c r="D23" t="n">
-        <v>1971</v>
+        <v>1962</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -1588,45 +1609,43 @@
       </c>
       <c r="C24"/>
       <c r="D24" t="n">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B25"/>
       <c r="C25"/>
       <c r="D25" t="n">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
         <v>71</v>
       </c>
-      <c r="B26" t="s">
-        <v>70</v>
-      </c>
       <c r="C26" t="n">
-        <v>1961</v>
+        <v>1989</v>
       </c>
       <c r="D26" t="n">
-        <v>1962</v>
+        <v>1989</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -1642,35 +1661,33 @@
       <c r="B27" t="s">
         <v>74</v>
       </c>
-      <c r="C27" t="n">
-        <v>1989</v>
-      </c>
+      <c r="C27"/>
       <c r="D27" t="n">
-        <v>1989</v>
+        <v>1946</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
         <v>76</v>
-      </c>
-      <c r="B28" t="s">
-        <v>77</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="n">
-        <v>1946</v>
+        <v>1928</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -1682,100 +1699,102 @@
       </c>
       <c r="C29"/>
       <c r="D29" t="n">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
         <v>81</v>
-      </c>
-      <c r="B30" t="s">
-        <v>82</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="n">
-        <v>1925</v>
+        <v>1966</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
         <v>83</v>
-      </c>
-      <c r="B31" t="s">
-        <v>84</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="n">
-        <v>1966</v>
+        <v>1994</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="n">
-        <v>1994</v>
+        <v>2014</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
         <v>87</v>
-      </c>
-      <c r="B33" t="s">
-        <v>82</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="n">
-        <v>2014</v>
+        <v>1950</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
         <v>89</v>
       </c>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34"/>
+      <c r="C34" t="n">
+        <v>1936</v>
+      </c>
       <c r="D34" t="n">
-        <v>1950</v>
+        <v>1938</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
         <v>32</v>
@@ -1783,66 +1802,62 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1936</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C35"/>
       <c r="D35" t="n">
-        <v>1938</v>
+        <v>1994</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="n">
-        <v>1994</v>
+        <v>1926</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>94</v>
       </c>
-      <c r="B37" t="s">
-        <v>95</v>
-      </c>
+      <c r="B37"/>
       <c r="C37"/>
       <c r="D37" t="n">
-        <v>1926</v>
+        <v>2019</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
         <v>97</v>
-      </c>
-      <c r="B38" t="s">
-        <v>98</v>
       </c>
       <c r="C38" t="n">
         <v>1836</v>
@@ -1854,15 +1869,15 @@
         <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s">
         <v>100</v>
-      </c>
-      <c r="B39" t="s">
-        <v>101</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="n">
@@ -1872,15 +1887,15 @@
         <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
         <v>103</v>
-      </c>
-      <c r="B40" t="s">
-        <v>104</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="n">
@@ -1890,15 +1905,15 @@
         <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
         <v>106</v>
-      </c>
-      <c r="B41" t="s">
-        <v>107</v>
       </c>
       <c r="C41" t="n">
         <v>1920</v>
@@ -1910,15 +1925,15 @@
         <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" t="s">
         <v>109</v>
-      </c>
-      <c r="B42" t="s">
-        <v>110</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="n">
@@ -1933,10 +1948,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
         <v>111</v>
-      </c>
-      <c r="B43" t="s">
-        <v>112</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="n">
@@ -1951,11 +1966,9 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" t="s">
-        <v>114</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B44"/>
       <c r="C44"/>
       <c r="D44" t="n">
         <v>1984</v>
@@ -1964,15 +1977,15 @@
         <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="n">
@@ -1982,15 +1995,15 @@
         <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="n">
@@ -2000,15 +2013,15 @@
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="n">
@@ -2018,16 +2031,14 @@
         <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" t="s">
-        <v>125</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B48"/>
       <c r="C48"/>
       <c r="D48" t="n">
         <v>1958</v>
@@ -2036,15 +2047,15 @@
         <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C49" t="n">
         <v>1984</v>
@@ -2056,15 +2067,15 @@
         <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="n">
@@ -2074,15 +2085,15 @@
         <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="n">
@@ -2097,10 +2108,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="n">
@@ -2110,15 +2121,15 @@
         <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C53" t="n">
         <v>1962</v>
@@ -2130,15 +2141,15 @@
         <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C54"/>
       <c r="D54" t="n">
@@ -2153,10 +2164,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C55"/>
       <c r="D55" t="n">
@@ -2171,10 +2182,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="n">
@@ -2184,15 +2195,15 @@
         <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C57" t="n">
         <v>2013</v>
@@ -2204,15 +2215,15 @@
         <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C58"/>
       <c r="D58" t="n">
@@ -2222,15 +2233,15 @@
         <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C59"/>
       <c r="D59" t="n">
@@ -2240,15 +2251,15 @@
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C60" t="n">
         <v>2002</v>
@@ -2260,15 +2271,15 @@
         <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C61" t="n">
         <v>1932</v>
@@ -2280,15 +2291,15 @@
         <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C62" t="n">
         <v>2004</v>
@@ -2300,15 +2311,15 @@
         <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C63"/>
       <c r="D63" t="n">
@@ -2318,15 +2329,15 @@
         <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C64"/>
       <c r="D64" t="n">
@@ -2336,207 +2347,203 @@
         <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>165</v>
-      </c>
-      <c r="B65" t="s">
-        <v>166</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B65"/>
       <c r="C65"/>
       <c r="D65" t="n">
-        <v>1958</v>
+        <v>1950</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B66" t="s">
-        <v>169</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2002</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C66"/>
       <c r="D66" t="n">
-        <v>1950</v>
+        <v>1958</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C67" t="n">
-        <v>1836</v>
+        <v>2002</v>
       </c>
       <c r="D67" t="n">
-        <v>1918</v>
+        <v>1950</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C68" t="n">
-        <v>1931</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1942</v>
-      </c>
+        <v>1836</v>
+      </c>
+      <c r="D68"/>
       <c r="E68" t="s">
         <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
-      </c>
-      <c r="C69"/>
+        <v>174</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1931</v>
+      </c>
       <c r="D69" t="n">
-        <v>1954</v>
+        <v>1942</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1944</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C70"/>
       <c r="D70" t="n">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
-      </c>
-      <c r="C71"/>
+        <v>179</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1944</v>
+      </c>
       <c r="D71" t="n">
-        <v>1931</v>
+        <v>1958</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="C72"/>
       <c r="D72" t="n">
-        <v>1962</v>
+        <v>1931</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C73"/>
       <c r="D73" t="n">
-        <v>1950</v>
+        <v>1962</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="C74"/>
       <c r="D74" t="n">
-        <v>1938</v>
+        <v>1950</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B75" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="n">
-        <v>1950</v>
+        <v>1938</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -2547,268 +2554,268 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C76"/>
       <c r="D76" t="n">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B77" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="n">
-        <v>1994</v>
+        <v>1946</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B78" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="n">
-        <v>1928</v>
+        <v>1994</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B79" t="s">
-        <v>197</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1925</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C79"/>
       <c r="D79" t="n">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B80" t="s">
-        <v>199</v>
-      </c>
-      <c r="C80"/>
+        <v>197</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1925</v>
+      </c>
       <c r="D80" t="n">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B81" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="n">
-        <v>1994</v>
+        <v>1928</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B82" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="n">
-        <v>1934</v>
+        <v>1994</v>
       </c>
       <c r="E82" t="s">
         <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B83" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1910</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C83"/>
       <c r="D83" t="n">
-        <v>1919</v>
+        <v>1934</v>
       </c>
       <c r="E83" t="s">
         <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B84" t="s">
-        <v>210</v>
-      </c>
-      <c r="C84"/>
+        <v>207</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1910</v>
+      </c>
       <c r="D84" t="n">
-        <v>1931</v>
+        <v>1919</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>9</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B85" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="n">
-        <v>1989</v>
+        <v>1931</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>213</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B86" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="n">
-        <v>2019</v>
+        <v>1989</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B87" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="n">
-        <v>1989</v>
+        <v>2019</v>
       </c>
       <c r="E87" t="s">
         <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>218</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B88" t="s">
-        <v>220</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1987</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C88"/>
       <c r="D88" t="n">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
-      </c>
-      <c r="C89"/>
+        <v>220</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1987</v>
+      </c>
       <c r="D89" t="n">
-        <v>1946</v>
+        <v>1994</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="n">
@@ -2823,100 +2830,100 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B91" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C91"/>
       <c r="D91" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B92" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="n">
-        <v>1946</v>
+        <v>1931</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B93" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C93"/>
       <c r="D93" t="n">
-        <v>1931</v>
+        <v>1946</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B94" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="n">
-        <v>1946</v>
+        <v>1931</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B95" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="n">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B96" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="n">
@@ -2926,217 +2933,217 @@
         <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1910</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C97"/>
       <c r="D97" t="n">
-        <v>1919</v>
+        <v>1950</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>239</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B98" t="s">
-        <v>241</v>
-      </c>
-      <c r="C98"/>
+        <v>238</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1910</v>
+      </c>
       <c r="D98" t="n">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B99" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C99"/>
       <c r="D99" t="n">
-        <v>1946</v>
+        <v>1925</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B100" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C100"/>
       <c r="D100" t="n">
-        <v>1958</v>
+        <v>1946</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F100" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B101" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C101"/>
       <c r="D101" t="n">
-        <v>1950</v>
+        <v>1958</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="n">
-        <v>1922</v>
+        <v>1950</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F102" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B103" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="n">
-        <v>1984</v>
+        <v>1922</v>
       </c>
       <c r="E103" t="s">
         <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B104" t="s">
-        <v>255</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1962</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C104"/>
       <c r="D104" t="n">
-        <v>1946</v>
+        <v>1984</v>
       </c>
       <c r="E104" t="s">
         <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B105" t="s">
-        <v>258</v>
-      </c>
-      <c r="C105"/>
+        <v>255</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1962</v>
+      </c>
       <c r="D105" t="n">
-        <v>1971</v>
+        <v>1946</v>
       </c>
       <c r="E105" t="s">
         <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>118</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B106" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="n">
-        <v>1946</v>
+        <v>1971</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B107" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C107"/>
       <c r="D107" t="n">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B108" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C108"/>
       <c r="D108" t="n">
@@ -3151,10 +3158,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B109" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C109"/>
       <c r="D109" t="n">
@@ -3169,51 +3176,107 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B110" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C110"/>
       <c r="D110" t="n">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B111" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C111"/>
-      <c r="D111" t="n">
-        <v>1946</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" t="s">
-        <v>23</v>
-      </c>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B112" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C112"/>
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>271</v>
+      </c>
+      <c r="B113" t="s">
+        <v>272</v>
+      </c>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>273</v>
+      </c>
+      <c r="B114" t="s">
+        <v>67</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1961</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>274</v>
+      </c>
+      <c r="B115" t="s">
+        <v>275</v>
+      </c>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" t="s">
+        <v>277</v>
+      </c>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>278</v>
+      </c>
+      <c r="B117" t="s">
+        <v>278</v>
+      </c>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/partidos_uy.xlsx
+++ b/data-raw/partidos_uy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t xml:space="preserve">Partido</t>
   </si>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">PN</t>
   </si>
   <si>
-    <t xml:space="preserve">1918 - 1919 - 1920 - 1922 - 1925 - 1926 - 1928 - 1930 - 1931 - 1932 - 1934 - 1938 - 1942 - 1946 - 1950 - 1954 - 1958 - 1962 - 1966 - 1971 - 1984 - 1989 - 1994 - 1999 - 2004 - 2009 - 2014 - 2019 - NA - 2000 - 2005 - 2010 - 2015 - 2020</t>
+    <t xml:space="preserve">1918 - 1919 - 1920 - 1922 - 1925 - 1926 - 1928 - 1930 - 1931 - 1932 - 1934 - 1938 - 1942 - 1946 - 1950 - 1954 - 1958 - 1962 - 1966 - 1971 - 1984 - 1989 - 1994 - 1999 - 2004 - 2009 - 2014 - 2019 - 2000 - 2005 - 2010 - 2015 - 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Partido Nacional Independiente</t>
@@ -815,6 +815,21 @@
     <t xml:space="preserve">UVPCL</t>
   </si>
   <si>
+    <t xml:space="preserve">Movimiento Revolucionario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido Convergencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PConvergencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partido de las clases Pasivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Union Vecinal  Herrerismo</t>
   </si>
   <si>
@@ -825,27 +840,6 @@
   </si>
   <si>
     <t xml:space="preserve">UVMH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabildo Abierto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movimiento Revolucionario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido Convergencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PConvergencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partido de las clases Pasivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCP</t>
   </si>
   <si>
     <t xml:space="preserve">Riveristas</t>
@@ -2414,7 +2408,9 @@
       <c r="C68" t="n">
         <v>1836</v>
       </c>
-      <c r="D68"/>
+      <c r="D68" t="n">
+        <v>1918</v>
+      </c>
       <c r="E68" t="s">
         <v>12</v>
       </c>
@@ -3197,19 +3193,21 @@
         <v>267</v>
       </c>
       <c r="B111" t="s">
-        <v>268</v>
-      </c>
-      <c r="C111"/>
+        <v>67</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1961</v>
+      </c>
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>268</v>
+      </c>
+      <c r="B112" t="s">
         <v>269</v>
-      </c>
-      <c r="B112" t="s">
-        <v>270</v>
       </c>
       <c r="C112"/>
       <c r="D112"/>
@@ -3218,10 +3216,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>270</v>
+      </c>
+      <c r="B113" t="s">
         <v>271</v>
-      </c>
-      <c r="B113" t="s">
-        <v>272</v>
       </c>
       <c r="C113"/>
       <c r="D113"/>
@@ -3230,14 +3228,12 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>272</v>
+      </c>
+      <c r="B114" t="s">
         <v>273</v>
       </c>
-      <c r="B114" t="s">
-        <v>67</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1961</v>
-      </c>
+      <c r="C114"/>
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114"/>
@@ -3259,24 +3255,12 @@
         <v>276</v>
       </c>
       <c r="B116" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>278</v>
-      </c>
-      <c r="B117" t="s">
-        <v>278</v>
-      </c>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/partidos_uy.xlsx
+++ b/data-raw/partidos_uy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
   <si>
     <t xml:space="preserve">Partido</t>
   </si>
@@ -215,12 +215,15 @@
     <t xml:space="preserve">Movimiento Renovador</t>
   </si>
   <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movimiento Revolucionario Oriental</t>
+  </si>
+  <si>
     <t xml:space="preserve">MRO</t>
   </si>
   <si>
-    <t xml:space="preserve">Movimiento Revolucionario Oriental</t>
-  </si>
-  <si>
     <t xml:space="preserve">1962</t>
   </si>
   <si>
@@ -299,6 +302,9 @@
     <t xml:space="preserve">Partido Cabildo Abierto</t>
   </si>
   <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
     <t xml:space="preserve">2019 - 2020</t>
   </si>
   <si>
@@ -353,6 +359,9 @@
     <t xml:space="preserve">Partido Convergencia Socialista</t>
   </si>
   <si>
+    <t xml:space="preserve">PCS</t>
+  </si>
+  <si>
     <t xml:space="preserve">1984 - 1989</t>
   </si>
   <si>
@@ -386,6 +395,9 @@
     <t xml:space="preserve">Partido de las Clases Pasivas</t>
   </si>
   <si>
+    <t xml:space="preserve">PCP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Partido de los Trabajadores</t>
   </si>
   <si>
@@ -506,6 +518,9 @@
     <t xml:space="preserve">Partido la Concordancia Laborista</t>
   </si>
   <si>
+    <t xml:space="preserve">PCL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Partido Laborista</t>
   </si>
   <si>
@@ -825,9 +840,6 @@
   </si>
   <si>
     <t xml:space="preserve">Partido de las clases Pasivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCP</t>
   </si>
   <si>
     <t xml:space="preserve">Union Vecinal  Herrerismo</t>
@@ -1616,7 +1628,9 @@
       <c r="A25" t="s">
         <v>68</v>
       </c>
-      <c r="B25"/>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
       <c r="C25"/>
       <c r="D25" t="n">
         <v>1962</v>
@@ -1625,15 +1639,15 @@
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" t="n">
         <v>1989</v>
@@ -1645,15 +1659,15 @@
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="n">
@@ -1668,10 +1682,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="n">
@@ -1681,15 +1695,15 @@
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="n">
@@ -1704,10 +1718,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="n">
@@ -1722,10 +1736,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="n">
@@ -1740,10 +1754,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="n">
@@ -1753,15 +1767,15 @@
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="n">
@@ -1776,10 +1790,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C34" t="n">
         <v>1936</v>
@@ -1796,10 +1810,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="n">
@@ -1814,10 +1828,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="n">
@@ -1827,14 +1841,16 @@
         <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37"/>
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
       <c r="C37"/>
       <c r="D37" t="n">
         <v>2019</v>
@@ -1843,15 +1859,15 @@
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C38" t="n">
         <v>1836</v>
@@ -1863,15 +1879,15 @@
         <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="n">
@@ -1881,15 +1897,15 @@
         <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="n">
@@ -1899,15 +1915,15 @@
         <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C41" t="n">
         <v>1920</v>
@@ -1919,15 +1935,15 @@
         <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="n">
@@ -1942,10 +1958,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="n">
@@ -1960,9 +1976,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44"/>
+        <v>114</v>
+      </c>
+      <c r="B44" t="s">
+        <v>115</v>
+      </c>
       <c r="C44"/>
       <c r="D44" t="n">
         <v>1984</v>
@@ -1971,15 +1989,15 @@
         <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="n">
@@ -1989,15 +2007,15 @@
         <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="n">
@@ -2007,15 +2025,15 @@
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="n">
@@ -2025,14 +2043,16 @@
         <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48"/>
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
       <c r="C48"/>
       <c r="D48" t="n">
         <v>1958</v>
@@ -2046,10 +2066,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C49" t="n">
         <v>1984</v>
@@ -2061,15 +2081,15 @@
         <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="n">
@@ -2084,10 +2104,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="n">
@@ -2102,10 +2122,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="n">
@@ -2115,15 +2135,15 @@
         <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C53" t="n">
         <v>1962</v>
@@ -2140,10 +2160,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C54"/>
       <c r="D54" t="n">
@@ -2158,10 +2178,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C55"/>
       <c r="D55" t="n">
@@ -2176,10 +2196,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="n">
@@ -2189,15 +2209,15 @@
         <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C57" t="n">
         <v>2013</v>
@@ -2209,15 +2229,15 @@
         <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C58"/>
       <c r="D58" t="n">
@@ -2232,10 +2252,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C59"/>
       <c r="D59" t="n">
@@ -2245,15 +2265,15 @@
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C60" t="n">
         <v>2002</v>
@@ -2265,15 +2285,15 @@
         <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C61" t="n">
         <v>1932</v>
@@ -2290,10 +2310,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C62" t="n">
         <v>2004</v>
@@ -2305,15 +2325,15 @@
         <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C63"/>
       <c r="D63" t="n">
@@ -2323,15 +2343,15 @@
         <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C64"/>
       <c r="D64" t="n">
@@ -2341,14 +2361,16 @@
         <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65"/>
+        <v>167</v>
+      </c>
+      <c r="B65" t="s">
+        <v>168</v>
+      </c>
       <c r="C65"/>
       <c r="D65" t="n">
         <v>1950</v>
@@ -2362,10 +2384,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C66"/>
       <c r="D66" t="n">
@@ -2375,15 +2397,15 @@
         <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C67" t="n">
         <v>2002</v>
@@ -2395,15 +2417,15 @@
         <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B68" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C68" t="n">
         <v>1836</v>
@@ -2415,15 +2437,15 @@
         <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C69" t="n">
         <v>1931</v>
@@ -2435,15 +2457,15 @@
         <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C70"/>
       <c r="D70" t="n">
@@ -2458,10 +2480,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C71" t="n">
         <v>1944</v>
@@ -2473,15 +2495,15 @@
         <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C72"/>
       <c r="D72" t="n">
@@ -2496,10 +2518,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C73"/>
       <c r="D73" t="n">
@@ -2514,10 +2536,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C74"/>
       <c r="D74" t="n">
@@ -2532,10 +2554,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="n">
@@ -2550,10 +2572,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C76"/>
       <c r="D76" t="n">
@@ -2568,10 +2590,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B77" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="n">
@@ -2586,10 +2608,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B78" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="n">
@@ -2604,10 +2626,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="n">
@@ -2617,15 +2639,15 @@
         <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C80" t="n">
         <v>1925</v>
@@ -2642,10 +2664,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B81" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="n">
@@ -2655,15 +2677,15 @@
         <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B82" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="n">
@@ -2678,10 +2700,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B83" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C83"/>
       <c r="D83" t="n">
@@ -2691,15 +2713,15 @@
         <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B84" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C84" t="n">
         <v>1910</v>
@@ -2711,15 +2733,15 @@
         <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B85" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="n">
@@ -2734,10 +2756,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B86" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="n">
@@ -2747,15 +2769,15 @@
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B87" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="n">
@@ -2765,15 +2787,15 @@
         <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="n">
@@ -2783,15 +2805,15 @@
         <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B89" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C89" t="n">
         <v>1987</v>
@@ -2808,10 +2830,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B90" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="n">
@@ -2826,10 +2848,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B91" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C91"/>
       <c r="D91" t="n">
@@ -2844,10 +2866,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B92" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="n">
@@ -2862,10 +2884,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B93" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C93"/>
       <c r="D93" t="n">
@@ -2880,10 +2902,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B94" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="n">
@@ -2898,10 +2920,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B95" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="n">
@@ -2916,10 +2938,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B96" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="n">
@@ -2934,10 +2956,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B97" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C97"/>
       <c r="D97" t="n">
@@ -2952,10 +2974,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B98" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C98" t="n">
         <v>1910</v>
@@ -2967,15 +2989,15 @@
         <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B99" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C99"/>
       <c r="D99" t="n">
@@ -2990,10 +3012,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B100" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C100"/>
       <c r="D100" t="n">
@@ -3008,10 +3030,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B101" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C101"/>
       <c r="D101" t="n">
@@ -3026,10 +3048,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B102" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="n">
@@ -3044,10 +3066,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B103" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="n">
@@ -3057,15 +3079,15 @@
         <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B104" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="n">
@@ -3075,15 +3097,15 @@
         <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B105" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C105" t="n">
         <v>1962</v>
@@ -3095,15 +3117,15 @@
         <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="n">
@@ -3113,15 +3135,15 @@
         <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B107" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C107"/>
       <c r="D107" t="n">
@@ -3131,15 +3153,15 @@
         <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B108" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C108"/>
       <c r="D108" t="n">
@@ -3154,10 +3176,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B109" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C109"/>
       <c r="D109" t="n">
@@ -3172,10 +3194,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B110" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C110"/>
       <c r="D110" t="n">
@@ -3190,10 +3212,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B111" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C111" t="n">
         <v>1961</v>
@@ -3204,10 +3226,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B112" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C112"/>
       <c r="D112"/>
@@ -3216,10 +3238,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B113" t="s">
-        <v>271</v>
+        <v>127</v>
       </c>
       <c r="C113"/>
       <c r="D113"/>
@@ -3228,10 +3250,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B114" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C114"/>
       <c r="D114"/>
@@ -3240,10 +3262,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B115" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C115"/>
       <c r="D115"/>
@@ -3252,10 +3274,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B116" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C116"/>
       <c r="D116"/>
